--- a/Planilla de horarios.xlsx
+++ b/Planilla de horarios.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\GitHub\RestApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -82,11 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +102,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -144,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +424,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
     </row>

--- a/Planilla de horarios.xlsx
+++ b/Planilla de horarios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>Recursos</t>
+  </si>
+  <si>
+    <t>Estudio de prefactibilidad</t>
+  </si>
+  <si>
+    <t>Iteraciones 'Construcción y transicción' - modelado de requisitos</t>
+  </si>
+  <si>
+    <t>Iteraciones 'Inicio, elaboracion' - diagramas de actividad</t>
   </si>
 </sst>
 </file>
@@ -92,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -416,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>41596</v>
       </c>
@@ -426,17 +435,190 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>41599</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>41604</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>41606</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
